--- a/data/VN_DB.xlsx
+++ b/data/VN_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\GCRF\figure\gcrf-figure\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3114805-5482-4EE6-9C25-95D8C7785D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDC7E7A-5356-4333-B00C-CCF07444153B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6BD2EFC3-010A-4F51-8D68-FB28F09E4BE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6BD2EFC3-010A-4F51-8D68-FB28F09E4BE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Flooding" sheetId="1" r:id="rId1"/>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D51C055-BA42-42BF-BA02-6171834BE0FE}">
   <dimension ref="A1:B449"/>
   <sheetViews>
-    <sheetView topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="F444" sqref="F444"/>
+    <sheetView topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4226,8 +4226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E47667-21E2-411B-B45F-D71D30227553}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5044,7 +5044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED6A445-749B-4E06-A6CB-316CE22EF310}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -5379,8 +5379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1548AE86-66DA-4EFA-8D94-888C656CF6EF}">
   <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
